--- a/Documentation/003-LogicalDesign/Relational_Model_Mapping.xlsx
+++ b/Documentation/003-LogicalDesign/Relational_Model_Mapping.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo\bits\dda-assignment\courier-mgmt-group-bm\LogicalDesign\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo\bits\dda-assignment\courier-mgmt-group-bm\Documentation\003-LogicalDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD697AD-EFB1-4B98-A510-7C2DED381512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C20D1D-D817-49A7-BD3E-96585347BB09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{B7C97A22-F115-4181-8B0D-AEB61CB2F847}"/>
   </bookViews>
@@ -7944,8 +7944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C38153-C6DE-43F5-9F7A-64CFB0272C41}">
   <dimension ref="B1:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:Q30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8046,13 +8046,13 @@
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E10" s="6" t="s">

--- a/Documentation/003-LogicalDesign/Relational_Model_Mapping.xlsx
+++ b/Documentation/003-LogicalDesign/Relational_Model_Mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo\bits\dda-assignment\courier-mgmt-group-bm\Documentation\003-LogicalDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C20D1D-D817-49A7-BD3E-96585347BB09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F612D590-FB82-49AD-B739-BF3B11901C91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{B7C97A22-F115-4181-8B0D-AEB61CB2F847}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" activeTab="1" xr2:uid="{B7C97A22-F115-4181-8B0D-AEB61CB2F847}"/>
   </bookViews>
   <sheets>
     <sheet name="V1" sheetId="3" r:id="rId1"/>
@@ -7944,7 +7944,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C38153-C6DE-43F5-9F7A-64CFB0272C41}">
   <dimension ref="B1:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection sqref="A1:Q30"/>
     </sheetView>
   </sheetViews>
@@ -8074,7 +8074,7 @@
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -8215,9 +8215,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89626CEB-7E65-4AB6-B0B8-8E2C8D41B16A}">
   <dimension ref="B1:P27"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -8317,13 +8315,13 @@
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E10" s="6" t="s">

--- a/Documentation/003-LogicalDesign/Relational_Model_Mapping.xlsx
+++ b/Documentation/003-LogicalDesign/Relational_Model_Mapping.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo\bits\dda-assignment\courier-mgmt-group-bm\Documentation\003-LogicalDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F612D590-FB82-49AD-B739-BF3B11901C91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BBE0494-87FD-439E-9F13-BE37017A0A3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" activeTab="1" xr2:uid="{B7C97A22-F115-4181-8B0D-AEB61CB2F847}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" activeTab="2" xr2:uid="{B7C97A22-F115-4181-8B0D-AEB61CB2F847}"/>
   </bookViews>
   <sheets>
     <sheet name="V1" sheetId="3" r:id="rId1"/>
     <sheet name="V2" sheetId="1" r:id="rId2"/>
+    <sheet name="V3" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="53">
   <si>
     <t>shipment</t>
   </si>
@@ -183,6 +184,18 @@
   <si>
     <t>employee_id</t>
   </si>
+  <si>
+    <t>shipment_tracker_id</t>
+  </si>
+  <si>
+    <t>delivery_datetime</t>
+  </si>
+  <si>
+    <t>agent_id</t>
+  </si>
+  <si>
+    <t>creation_datetime</t>
+  </si>
 </sst>
 </file>
 
@@ -4814,13 +4827,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>426720</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4835,7 +4848,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2087880" y="1196340"/>
+          <a:off x="2087880" y="1173480"/>
           <a:ext cx="655320" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -5570,14 +5583,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>441960</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>441960</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
@@ -5594,7 +5607,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1051560" y="4762500"/>
+          <a:off x="2394585" y="4893945"/>
           <a:ext cx="0" cy="129540"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -5626,8 +5639,8 @@
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>426720</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
@@ -5644,8 +5657,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="441960" y="4907280"/>
-          <a:ext cx="594360" cy="0"/>
+          <a:off x="441960" y="5038725"/>
+          <a:ext cx="1958340" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -5823,16 +5836,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>268941</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>281940</xdr:colOff>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>488017</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>62753</xdr:rowOff>
+      <xdr:rowOff>72278</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5846,59 +5859,59 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3324225" y="4905375"/>
+          <a:ext cx="11767" cy="234203"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>289562</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>60961</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="180" name="Straight Connector 179">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62155420-75CE-4C29-9051-C09A04AE4027}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="1927412" y="4661647"/>
-          <a:ext cx="12999" cy="242047"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>289560</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="180" name="Straight Connector 179">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62155420-75CE-4C29-9051-C09A04AE4027}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="289560" y="4991100"/>
-          <a:ext cx="1638300" cy="7620"/>
+          <a:off x="289562" y="5114925"/>
+          <a:ext cx="3044188" cy="13336"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -6076,14 +6089,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>385482</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>499782</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>394447</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>508747</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>134471</xdr:rowOff>
     </xdr:to>
@@ -6100,8 +6113,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2976282" y="4661647"/>
-          <a:ext cx="8965" cy="313765"/>
+          <a:off x="4528857" y="4886325"/>
+          <a:ext cx="8965" cy="315446"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -6129,11 +6142,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>242047</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>376518</xdr:colOff>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
@@ -6150,8 +6163,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="242047" y="4993341"/>
-          <a:ext cx="2725271" cy="0"/>
+          <a:off x="242047" y="5191125"/>
+          <a:ext cx="4320428" cy="28575"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -6329,14 +6342,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>340658</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>321608</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>170329</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
@@ -6353,34 +6366,34 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6802418" y="4925209"/>
-          <a:ext cx="2242" cy="370691"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>349623</xdr:colOff>
+          <a:off x="8779808" y="4875679"/>
+          <a:ext cx="2242" cy="366881"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -6388,7 +6401,7 @@
       <xdr:col>16</xdr:col>
       <xdr:colOff>699247</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6403,8 +6416,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6822141" y="5020235"/>
-          <a:ext cx="8830235" cy="0"/>
+          <a:off x="8772525" y="5248275"/>
+          <a:ext cx="8033497" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -6582,16 +6595,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>394448</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>8965</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>403412</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>356348</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>170890</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>365312</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>44824</xdr:rowOff>
+      <xdr:rowOff>25774</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6606,34 +6619,34 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7826189" y="4670612"/>
-          <a:ext cx="8964" cy="573741"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>394447</xdr:colOff>
+          <a:off x="9776573" y="4876240"/>
+          <a:ext cx="8964" cy="578784"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -6641,7 +6654,7 @@
       <xdr:col>16</xdr:col>
       <xdr:colOff>396240</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>17930</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6656,8 +6669,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7816327" y="5486400"/>
-          <a:ext cx="7530353" cy="17930"/>
+          <a:off x="9782175" y="5429250"/>
+          <a:ext cx="6720840" cy="28575"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -7624,6 +7637,4417 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28F0D034-4A0C-4B56-AD58-4E0C3E2BE74B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4122420" y="2560320"/>
+          <a:ext cx="0" cy="129540"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50AA8828-965D-425F-BD04-DE929DB92F87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4122420" y="2697480"/>
+          <a:ext cx="3055620" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A112A72-8B4F-4765-B077-931EC35C7BC2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7170420" y="1729740"/>
+          <a:ext cx="0" cy="975360"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E43EA15-4E78-482F-8F2B-9D0169AA7B11}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6316980" y="1744980"/>
+          <a:ext cx="883920" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Connector 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4629D6F-B1C8-4728-A5C1-6C8E2FA083FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6301740" y="1219200"/>
+          <a:ext cx="7620" cy="525780"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>899160</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2AD014E-06DC-4FB3-96A5-B89B67665733}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1508760" y="1226820"/>
+          <a:ext cx="4808220" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>899160</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>899160</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Straight Arrow Connector 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90C3D781-4CD2-428E-AD3C-2624E9865EC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1508760" y="1066800"/>
+          <a:ext cx="0" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="Straight Connector 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{534F66A7-25C2-49B7-8DF0-93B99ACD8E24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7719060" y="1104900"/>
+          <a:ext cx="0" cy="198120"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>731520</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85BCD724-5415-479D-A31D-95696464938D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1341120" y="1272540"/>
+          <a:ext cx="6377940" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>731520</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>731520</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0A54272-5CA5-41F6-86AB-97EC6FB72004}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1341120" y="1082040"/>
+          <a:ext cx="0" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>90765</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6F75A18-761F-4A34-97DB-AB92BFF011A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1181100" y="1370925"/>
+          <a:ext cx="7604760" cy="675"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D814ECE2-115A-46A0-BBF7-6AE881699CCD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1173480" y="1089660"/>
+          <a:ext cx="0" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E88F12B5-2736-4A74-ABB4-A73727B792C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8793480" y="1120140"/>
+          <a:ext cx="0" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D944FF6-7753-45EE-B449-B64F39D1C61C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2423160" y="1836420"/>
+          <a:ext cx="0" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4656972-F4DD-4BC2-8E6D-764E3C617A17}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="419100" y="2118360"/>
+          <a:ext cx="2004060" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95B7D673-F934-4F72-9439-CA0A5191507C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="441960" y="1371600"/>
+          <a:ext cx="0" cy="739140"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02184CD6-E8F0-4F55-A223-899CE8F24901}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="472440" y="1356360"/>
+          <a:ext cx="228600" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6DAA637-367E-40F2-A62C-AFCAF96E0F1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="708660" y="1082040"/>
+          <a:ext cx="0" cy="281940"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Connector 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AF76DD1-4E9E-48F4-A427-200E1FD6DC8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1211580" y="1836420"/>
+          <a:ext cx="0" cy="144780"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Connector 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FC756F5-59C3-4CA8-B77B-500763041804}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="556260" y="1981200"/>
+          <a:ext cx="647700" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB797A35-3E85-4A11-8D0D-F6293ABCE1D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="563880" y="1440180"/>
+          <a:ext cx="0" cy="502920"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Straight Connector 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D9AC689-6BF9-45BD-B723-5B70ED9FA08F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="586740" y="1447800"/>
+          <a:ext cx="274320" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC34C8B0-8BD2-4323-A68B-49616EC80D90}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="876300" y="1089660"/>
+          <a:ext cx="0" cy="350520"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Straight Connector 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFD9411F-BD3B-4781-A6A2-F7F13BEE15B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2346960" y="1097280"/>
+          <a:ext cx="0" cy="83820"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Straight Connector 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7481F67B-F356-4503-961E-64A3FAF03A76}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2339340" y="1173480"/>
+          <a:ext cx="655320" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Straight Connector 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F38181E2-C89A-4EFA-8E88-6B07F8BFA166}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3009900" y="716280"/>
+          <a:ext cx="0" cy="472440"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Straight Connector 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28A4A15D-76AB-4C37-88F0-3557467B0B32}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1005840" y="708660"/>
+          <a:ext cx="2004060" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Straight Arrow Connector 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAB26BD9-7C75-46B8-8676-41D11FCB7DFA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1135380" y="335280"/>
+          <a:ext cx="7620" cy="327660"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Straight Connector 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEBC5A13-B676-4B62-9D77-358CBE521447}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4305300" y="1836420"/>
+          <a:ext cx="0" cy="175260"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="Straight Connector 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E5B5468-512E-4C24-8EB2-FCA991056ECD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4328160" y="2011680"/>
+          <a:ext cx="1935480" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Straight Connector 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E80DAAFA-E493-4566-A4DB-47E8D23BF9BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6248400" y="640080"/>
+          <a:ext cx="0" cy="1386840"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Straight Connector 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75A762AD-8573-4170-BB7C-54B3D77F905A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1150620" y="647700"/>
+          <a:ext cx="5113020" cy="15240"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05357F5D-4290-4840-BBB1-A396D33A9713}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1021080" y="358140"/>
+          <a:ext cx="0" cy="358140"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="Straight Connector 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7B4D87A-CA1B-4235-BDFC-AEF106228961}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2324100" y="4213860"/>
+          <a:ext cx="7620" cy="220980"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="Straight Connector 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B23ED938-7D33-4F22-B523-ED6787503404}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="403860" y="4411980"/>
+          <a:ext cx="1920240" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="Straight Connector 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{672F64B2-4F2B-4875-927E-99BC849AB571}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="419100" y="2667000"/>
+          <a:ext cx="22860" cy="1737360"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="Straight Connector 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C04309C-725A-494B-81E6-576F3DFF2B77}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9898380" y="1440180"/>
+          <a:ext cx="0" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="Straight Connector 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3C8DB82-0E56-47E2-8B27-810AD9532B38}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1028700" y="1440180"/>
+          <a:ext cx="8869680" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C717EDA-F287-4745-9C5A-C06FF0B6C5CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1036320" y="1089660"/>
+          <a:ext cx="0" cy="350520"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="Straight Connector 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D43F3F3E-EC95-402D-8437-C246DA20ADD8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2392680" y="4945380"/>
+          <a:ext cx="0" cy="129540"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="Straight Connector 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F2483AA-F155-403D-BE98-D045BC5328C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="441960" y="5090160"/>
+          <a:ext cx="1956435" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="Straight Connector 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF08DA6E-94E0-4B7C-A4CA-E9FFA07BEB26}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="434340" y="4556760"/>
+          <a:ext cx="0" cy="548640"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="Straight Connector 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03AA9BF5-D0F0-46DA-B447-1B95A808AC41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="426720" y="4541520"/>
+          <a:ext cx="449580" cy="15240"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="Straight Arrow Connector 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E593ECE-71B1-4BEB-85AF-202EFD0946D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="868680" y="4183380"/>
+          <a:ext cx="15240" cy="365760"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>488017</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>72278</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="Straight Connector 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED259C26-06CD-4DA2-97AB-6F2D25F0E357}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3318510" y="4956810"/>
+          <a:ext cx="11767" cy="236108"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>289562</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>60961</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="Straight Connector 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F983A436-F3F8-4061-B0BA-DCD2E1C1CA9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="289562" y="5168265"/>
+          <a:ext cx="3038473" cy="13336"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>286871</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>313765</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>53788</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="Straight Connector 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0918918-5229-4FA0-9AB8-56FC7F876FCD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="286871" y="683111"/>
+          <a:ext cx="26894" cy="4491317"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>322729</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>125506</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="Straight Connector 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FD418C8-33C6-4961-BDE1-EDB45FBF26CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="322729" y="670560"/>
+          <a:ext cx="568811" cy="3586"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>280595</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>170330</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>116542</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="Straight Arrow Connector 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31F25EC2-FE2C-4E78-AF0C-C0073CC98C06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="890195" y="353210"/>
+          <a:ext cx="8965" cy="311972"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>499782</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>508747</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="Straight Connector 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A800F92-A442-4FF8-90DC-B74B1D903613}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4523142" y="4937760"/>
+          <a:ext cx="8965" cy="317351"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>242047</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="Straight Connector 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70B18848-7ED5-4E35-8996-B483BB0EAD2C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="242047" y="5244465"/>
+          <a:ext cx="4314713" cy="28575"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>224118</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>233082</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>143438</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="Straight Connector 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7205BBC-1DF8-4E0E-BE61-B1ED8E954D1F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="224118" y="548640"/>
+          <a:ext cx="8964" cy="4715438"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>233082</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>17930</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="Straight Connector 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D9609B5-4BE6-4F6E-A94B-D7EBE26C0790}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="233082" y="566570"/>
+          <a:ext cx="559398" cy="4930"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>173915</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>170330</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>17930</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="Straight Arrow Connector 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4141F31E-732D-4290-8412-E4FF271ABCE0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="783515" y="353210"/>
+          <a:ext cx="8965" cy="213360"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>321608</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>170329</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="Straight Connector 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77A85B7B-B30E-4E66-A6EA-D494438A25B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8772188" y="4925209"/>
+          <a:ext cx="2242" cy="370691"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>699247</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="Straight Connector 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4444004C-60FE-4BDD-9EE0-125897230F32}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8764905" y="5303520"/>
+          <a:ext cx="8408782" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>708660</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>717177</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="Straight Connector 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7607F75D-6344-4B91-B321-8FA4AD5FD378}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="17183100" y="3223260"/>
+          <a:ext cx="8517" cy="2080260"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>624840</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>108921</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>699248</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="Straight Connector 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F026846-93CE-4E4D-9363-322F9458DE6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1234440" y="3217881"/>
+          <a:ext cx="15939248" cy="20619"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>624840</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>166295</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>630219</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="Straight Arrow Connector 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{753EC829-F458-475A-B4C8-E2361E95D002}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1234440" y="3092375"/>
+          <a:ext cx="5379" cy="146125"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>356348</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>170890</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>365312</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>25774</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="Straight Connector 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B943CE2-904B-4A1C-B636-5DA92A211E78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9767048" y="4925770"/>
+          <a:ext cx="8964" cy="586404"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="Straight Connector 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5227A06A-2D71-47FA-8C99-6B1FB8127C52}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9772650" y="5486400"/>
+          <a:ext cx="7098030" cy="28575"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>360832</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>35860</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="56" name="Straight Connector 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68208BD5-8530-48F3-BE4C-B9B27C287AC2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="16802100" y="3787140"/>
+          <a:ext cx="33172" cy="1735120"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="Straight Connector 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{775EE1B8-4B1F-486A-BE3C-412311F056A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="426720" y="2689860"/>
+          <a:ext cx="541020" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="Straight Arrow Connector 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57DA62AA-A763-4CEF-AAB2-3010CC91D8DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="952500" y="2529840"/>
+          <a:ext cx="15240" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="59" name="Straight Arrow Connector 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04D81B1F-ACCA-45FD-B893-73F09DC3686E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="952500" y="3627120"/>
+          <a:ext cx="7620" cy="198120"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="Straight Connector 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64E3E4F1-39C4-4F6E-990E-AD5A49ADEC27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="967740" y="3787140"/>
+          <a:ext cx="15864840" cy="30480"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>868680</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="61" name="Straight Connector 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8B219CB-497E-4662-BF49-C5773556C258}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9906000" y="2156460"/>
+          <a:ext cx="7437120" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>861060</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="62" name="Straight Connector 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{476DC4A8-C00C-4043-9DFA-4351CFF2B811}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17335500" y="2125980"/>
+          <a:ext cx="15240" cy="2270760"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>861060</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="63" name="Straight Connector 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{407D63FA-1E3C-47CE-8C94-C4B5C749FCDB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9829800" y="4411980"/>
+          <a:ext cx="7505700" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="Straight Connector 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93FFAAD2-F588-42B2-8BA9-22BC594C19F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8892540" y="3116580"/>
+          <a:ext cx="0" cy="259080"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="65" name="Straight Connector 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AABD794E-E78E-4C67-A659-7AB6499BB1FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7650480" y="3642360"/>
+          <a:ext cx="0" cy="106680"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="66" name="Straight Connector 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FBF13F2-D8DC-4C03-B287-8B024AD4D8CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7642860" y="3710940"/>
+          <a:ext cx="4145280" cy="30480"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="67" name="Straight Connector 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FC0A033-8DAB-42DE-90E2-0558F320A0FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8892540" y="3368040"/>
+          <a:ext cx="2080260" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>617220</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>617220</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="68" name="Straight Connector 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{381F6969-31F6-42B7-9C55-DE254D10B46B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10988040" y="594360"/>
+          <a:ext cx="0" cy="2773680"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="69" name="Straight Connector 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FC0CA8D-D862-4AFF-BF90-5AA0C4FA06CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="11757660" y="480060"/>
+          <a:ext cx="30480" cy="3238500"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>655320</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>624840</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="70" name="Straight Connector 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92E0649D-11F3-42CA-BFEE-1FC5771B45DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1264920" y="594360"/>
+          <a:ext cx="9730740" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>678180</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>678180</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="71" name="Straight Arrow Connector 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57368328-E36B-4967-93DE-D6FE7A591105}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1287780" y="335280"/>
+          <a:ext cx="0" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="72" name="Straight Connector 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06994808-FDE5-4EAE-84F1-B145B6D002C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1409700" y="480060"/>
+          <a:ext cx="10355580" cy="30480"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>792480</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>807720</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="73" name="Straight Arrow Connector 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F962409-6F64-4C3A-83DC-A84BCDC7A6B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1402080" y="335280"/>
+          <a:ext cx="15240" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="74" name="Straight Connector 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9117D7C-C42F-4FE0-85B7-E3EF38E9F5F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9837420" y="4213860"/>
+          <a:ext cx="0" cy="205740"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="75" name="Straight Connector 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8A6C9D6-F58A-4FF1-BE5A-4ED5937CB7A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4373880" y="2560320"/>
+          <a:ext cx="0" cy="129540"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="76" name="Straight Connector 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A13E170C-EA1D-4A7D-9651-EA1ADEF8CFE2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4373880" y="2697480"/>
+          <a:ext cx="3055620" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="77" name="Straight Connector 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08F8D1F5-9CCB-416E-AF0A-416A47FA71F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7421880" y="1729740"/>
+          <a:ext cx="0" cy="975360"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="78" name="Straight Connector 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7479C3FF-B41F-4E78-96C2-8FE8E1C0F6C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6568440" y="1744980"/>
+          <a:ext cx="883920" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="79" name="Straight Connector 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10D1BB4F-C7FA-4533-BD72-747B3C6A59CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6553200" y="1219200"/>
+          <a:ext cx="7620" cy="525780"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>899160</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="80" name="Straight Connector 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4942D8CF-2773-4CA7-8A97-FB7F21B95B98}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1508760" y="1226820"/>
+          <a:ext cx="5059680" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>899160</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>899160</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="81" name="Straight Arrow Connector 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7FD6967-08F9-40B0-B5B9-052200ED6676}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1508760" y="1066800"/>
+          <a:ext cx="0" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -8215,19 +12639,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89626CEB-7E65-4AB6-B0B8-8E2C8D41B16A}">
   <dimension ref="B1:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="3"/>
-    <col min="2" max="2" width="15.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5546875" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.21875" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.44140625" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="14" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="17.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.21875" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.6640625" style="3" bestFit="1" customWidth="1"/>
@@ -8487,30 +12913,351 @@
       </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="E27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{681EFBCD-5AC7-4FC5-A757-DB10F8D26DBF}">
+  <dimension ref="B1:P27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="3"/>
+    <col min="2" max="2" width="19" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="13.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B1" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B6" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B9" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B11" s="5"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B12" s="7"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B13" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B14" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B15" s="7"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B16" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J17" s="11"/>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="E18" s="4"/>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B19" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B20" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B22" s="11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B23" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N23" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="O23" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="P23" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B26" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B27" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="D27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="F27" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F27" s="6" t="s">
-        <v>16</v>
-      </c>
       <c r="G27" s="6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>21</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="K27" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/003-LogicalDesign/Relational_Model_Mapping.xlsx
+++ b/Documentation/003-LogicalDesign/Relational_Model_Mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo\bits\dda-assignment\courier-mgmt-group-bm\Documentation\003-LogicalDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BBE0494-87FD-439E-9F13-BE37017A0A3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A708810-AC96-4D89-AFCF-2E798CEE4207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" activeTab="2" xr2:uid="{B7C97A22-F115-4181-8B0D-AEB61CB2F847}"/>
   </bookViews>
@@ -10400,14 +10400,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>321608</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>435908</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>170329</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
@@ -10424,36 +10424,36 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8772188" y="4925209"/>
-          <a:ext cx="2242" cy="370691"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+          <a:off x="9532283" y="4875679"/>
+          <a:ext cx="2242" cy="366881"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
@@ -10474,8 +10474,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8764905" y="5303520"/>
-          <a:ext cx="8408782" cy="1"/>
+          <a:off x="9534525" y="5238750"/>
+          <a:ext cx="6757147" cy="9526"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -10653,14 +10653,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>356348</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>270623</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>170890</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>365312</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>279587</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>25774</xdr:rowOff>
     </xdr:to>
@@ -10677,42 +10677,42 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9767048" y="4925770"/>
-          <a:ext cx="8964" cy="586404"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
+          <a:off x="10329023" y="4876240"/>
+          <a:ext cx="8964" cy="578784"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>396240</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -10727,8 +10727,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="9772650" y="5486400"/>
-          <a:ext cx="7098030" cy="28575"/>
+          <a:off x="10344150" y="5429251"/>
+          <a:ext cx="5644515" cy="19049"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -12955,8 +12955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{681EFBCD-5AC7-4FC5-A757-DB10F8D26DBF}">
   <dimension ref="B1:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12969,7 +12969,8 @@
     <col min="6" max="6" width="15.44140625" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.44140625" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.77734375" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.33203125" style="3" bestFit="1" customWidth="1"/>
@@ -13113,7 +13114,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>48</v>
       </c>
@@ -13140,16 +13141,16 @@
       </c>
       <c r="J17" s="11"/>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
       <c r="E18" s="4"/>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B19" s="11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>26</v>
       </c>
@@ -13172,12 +13173,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B22" s="11" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B23" s="8" t="s">
         <v>1</v>
       </c>
@@ -13220,16 +13221,13 @@
       <c r="O23" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="P23" s="6" t="s">
-        <v>22</v>
-      </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B26" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B27" s="2" t="s">
         <v>49</v>
       </c>
@@ -13249,15 +13247,18 @@
         <v>12</v>
       </c>
       <c r="H27" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I27" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="I27" s="6" t="s">
+      <c r="J27" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="J27" s="6" t="s">
+      <c r="K27" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/003-LogicalDesign/Relational_Model_Mapping.xlsx
+++ b/Documentation/003-LogicalDesign/Relational_Model_Mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo\bits\dda-assignment\courier-mgmt-group-bm\Documentation\003-LogicalDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A708810-AC96-4D89-AFCF-2E798CEE4207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A32C41-8812-4FDE-A1B5-466337A39C54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" activeTab="2" xr2:uid="{B7C97A22-F115-4181-8B0D-AEB61CB2F847}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="53">
   <si>
     <t>shipment</t>
   </si>
@@ -11109,8 +11109,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>306552</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
@@ -11118,7 +11118,7 @@
       <xdr:col>16</xdr:col>
       <xdr:colOff>861060</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:rowOff>26276</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -11133,8 +11133,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="9829800" y="4411980"/>
-          <a:ext cx="7505700" cy="7620"/>
+          <a:off x="10203793" y="4437205"/>
+          <a:ext cx="6291405" cy="3416"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -11665,14 +11665,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>426720</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>312858</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>426720</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>312858</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
@@ -11689,8 +11689,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="9837420" y="4213860"/>
-          <a:ext cx="0" cy="205740"/>
+          <a:off x="10210099" y="4238034"/>
+          <a:ext cx="0" cy="206791"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -12048,6 +12048,259 @@
         <a:ln>
           <a:tailEnd type="triangle"/>
         </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>455448</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>8758</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>455448</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>148896</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="84" name="Straight Connector 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10DCE3FD-E99B-4BB3-9236-18DCB2298659}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8373241" y="4239172"/>
+          <a:ext cx="0" cy="324069"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>464207</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>157655</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>586828</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>157655</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="86" name="Straight Connector 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A957BB40-9D46-43E3-B15E-9D47128BC8D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8382000" y="4572000"/>
+          <a:ext cx="7838966" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>353145</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>170005</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>385380</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>96345</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="87" name="Straight Arrow Connector 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A2BF8BD-E153-4C62-A18B-8AE74F208B56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="966248" y="1089660"/>
+          <a:ext cx="32235" cy="478133"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>394138</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>70069</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>560552</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>105104</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="90" name="Straight Connector 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{956B4C38-F485-43FF-BC8F-0698429E0F9C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1007241" y="1541517"/>
+          <a:ext cx="15187449" cy="35035"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>551793</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>61311</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>586828</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>140138</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="92" name="Straight Connector 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A32C554-53F8-41EF-9C3D-68DFAE2CF786}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="16185931" y="1532759"/>
+          <a:ext cx="35035" cy="3021724"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -12956,7 +13209,7 @@
   <dimension ref="B1:P27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12969,13 +13222,13 @@
     <col min="6" max="6" width="15.44140625" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.44140625" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.44140625" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.88671875" style="3" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="17.88671875" style="3" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14.88671875" style="3" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="5.88671875" style="3" bestFit="1" customWidth="1"/>
@@ -13114,7 +13367,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>48</v>
       </c>
@@ -13141,16 +13394,16 @@
       </c>
       <c r="J17" s="11"/>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
       <c r="E18" s="4"/>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B19" s="11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>26</v>
       </c>
@@ -13173,12 +13426,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B22" s="11" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B23" s="8" t="s">
         <v>1</v>
       </c>
@@ -13201,33 +13454,36 @@
         <v>6</v>
       </c>
       <c r="I23" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J23" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J23" s="6" t="s">
+      <c r="K23" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K23" s="6" t="s">
+      <c r="L23" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L23" s="6" t="s">
+      <c r="M23" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M23" s="6" t="s">
+      <c r="N23" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="N23" s="6" t="s">
+      <c r="O23" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O23" s="6" t="s">
+      <c r="P23" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B26" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B27" s="2" t="s">
         <v>49</v>
       </c>
